--- a/biology/Zoologie/Daviesa_lubinae/Daviesa_lubinae.xlsx
+++ b/biology/Zoologie/Daviesa_lubinae/Daviesa_lubinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daviesa lubinae est une espèce d'araignées aranéomorphes de la famille des Amaurobiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daviesa lubinae est une espèce d'araignées aranéomorphes de la famille des Amaurobiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 3,6 mm de long sur 2,6 mm et l'abdomen 3,8 mm de long sur 2,5 mm et la carapace du mâle paratype mesure 3,1 mm de long sur 2,3 mm et l'abdomen 3,3 mm de long sur 2,0 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 3,6 mm de long sur 2,6 mm et l'abdomen 3,8 mm de long sur 2,5 mm et la carapace du mâle paratype mesure 3,1 mm de long sur 2,3 mm et l'abdomen 3,3 mm de long sur 2,0 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Yael D. Lubin[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Yael D. Lubin.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Davies, 1993 : A new spider genus (Araneae : Amaurobioidea) from rainforests of Queensland, Australia. Memoirs of the Queensland Museum, vol. 33, p. 483-489 (texte intégral).</t>
         </is>
